--- a/p5/8/reordered 1-0.xlsx
+++ b/p5/8/reordered 1-0.xlsx
@@ -14,79 +14,34 @@
   <sheets>
     <sheet name="reordered 1-0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
-  <si>
-    <t>reordered 1</t>
-  </si>
-  <si>
-    <t>reordered 0</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>aisle</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>Organic Lemon</t>
   </si>
   <si>
-    <t>fresh fruits</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>Bag of Organic Bananas</t>
-  </si>
-  <si>
     <t>Strawberries</t>
   </si>
   <si>
-    <t>Organic Strawberries</t>
-  </si>
-  <si>
-    <t>Organic Baby Spinach</t>
-  </si>
-  <si>
-    <t>packaged vegetables fruits</t>
-  </si>
-  <si>
     <t>Organic Yellow Onion</t>
   </si>
   <si>
-    <t>fresh vegetables</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
     <t>Organic Garlic</t>
   </si>
   <si>
     <t>Limes</t>
   </si>
   <si>
-    <t>Organic Raspberries</t>
-  </si>
-  <si>
-    <t>Organic Fuji Apple</t>
-  </si>
-  <si>
     <t>Organic Blueberries</t>
   </si>
   <si>
@@ -96,16 +51,55 @@
     <t>Organic Zucchini</t>
   </si>
   <si>
-    <t>Organic Hass Avocado</t>
-  </si>
-  <si>
     <t>Large Lemon</t>
   </si>
   <si>
-    <t>Organic Avocado</t>
-  </si>
-  <si>
     <t>Cucumber Kirby</t>
+  </si>
+  <si>
+    <t>Organic Baby Carrots</t>
+  </si>
+  <si>
+    <t>Organic Cucumber</t>
+  </si>
+  <si>
+    <t>Seedless Red Grapes</t>
+  </si>
+  <si>
+    <t>1.Banana</t>
+  </si>
+  <si>
+    <t>2.Bag of Organic Bananas</t>
+  </si>
+  <si>
+    <t>10.Organic Whole Milk</t>
+  </si>
+  <si>
+    <t>5.Organic Hass Avocado</t>
+  </si>
+  <si>
+    <t>25.Organic Half &amp; Half</t>
+  </si>
+  <si>
+    <t>3.Organic Strawberries</t>
+  </si>
+  <si>
+    <t>4.Organic Baby Spinach</t>
+  </si>
+  <si>
+    <t>11.Organic Raspberries</t>
+  </si>
+  <si>
+    <t>6.Organic Avocado</t>
+  </si>
+  <si>
+    <t>19.Apple Honeycrisp Organic</t>
+  </si>
+  <si>
+    <t>23.Honeycrisp Apple</t>
+  </si>
+  <si>
+    <t>17.Organic Fuji Apple</t>
   </si>
 </sst>
 </file>
@@ -248,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +420,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,8 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -647,6 +648,902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'reordered 1-0'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.Banana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.Bag of Organic Bananas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.Organic Whole Milk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.Organic Hass Avocado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.Organic Half &amp; Half</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.Organic Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.Organic Baby Spinach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.Organic Raspberries</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.Organic Avocado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.Apple Honeycrisp Organic</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.Honeycrisp Apple</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.Organic Fuji Apple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reordered 1-0'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>84.350089405690213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.255501383581503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.035422936079186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.655311259270363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.145625982189628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.770389484779912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.250011367347184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.908877328410796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.810310211237734</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.523876734885903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.481791172009181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.192208139950026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70F7-418C-ABDE-08A1F593485F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578696767"/>
+        <c:axId val="578697183"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="578696767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578697183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578697183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578696767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="346">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,683 +1809,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>472565</v>
+      </c>
+      <c r="D3" s="1">
+        <v>398609</v>
+      </c>
+      <c r="E3" s="1">
+        <f>100/C3*D3</f>
+        <v>84.350089405690213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>379450</v>
+      </c>
+      <c r="D4" s="1">
+        <v>315913</v>
+      </c>
+      <c r="E4" s="1">
+        <f>100/C4*D4</f>
+        <v>83.255501383581503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>137905</v>
+      </c>
+      <c r="D5" s="1">
+        <v>114510</v>
+      </c>
+      <c r="E5" s="1">
+        <f>100/C5*D5</f>
+        <v>83.035422936079186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>213584</v>
+      </c>
+      <c r="D6" s="1">
+        <v>170131</v>
+      </c>
+      <c r="E6" s="1">
+        <f>100/C6*D6</f>
+        <v>79.655311259270363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>76360</v>
+      </c>
+      <c r="D7" s="1">
+        <v>59672</v>
+      </c>
+      <c r="E7" s="1">
+        <f>100/C7*D7</f>
+        <v>78.145625982189628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>264683</v>
+      </c>
+      <c r="D8" s="1">
+        <v>205845</v>
+      </c>
+      <c r="E8" s="1">
+        <f>100/C8*D8</f>
+        <v>77.770389484779912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>241921</v>
+      </c>
+      <c r="D9" s="1">
+        <v>186884</v>
+      </c>
+      <c r="E9" s="1">
+        <f>100/C9*D9</f>
+        <v>77.250011367347184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>137057</v>
+      </c>
+      <c r="D10" s="1">
+        <v>105409</v>
+      </c>
+      <c r="E10" s="1">
+        <f>100/C10*D10</f>
+        <v>76.908877328410796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>176815</v>
+      </c>
+      <c r="D11" s="1">
+        <v>134044</v>
+      </c>
+      <c r="E11" s="1">
+        <f>100/C11*D11</f>
+        <v>75.810310211237734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>85020</v>
+      </c>
+      <c r="D12" s="1">
+        <v>62510</v>
+      </c>
+      <c r="E12" s="1">
+        <f>100/C12*D12</f>
+        <v>73.523876734885903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>79769</v>
+      </c>
+      <c r="D13" s="1">
+        <v>57818</v>
+      </c>
+      <c r="E13" s="1">
+        <f>100/C13*D13</f>
+        <v>72.481791172009181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>89632</v>
+      </c>
+      <c r="D14" s="1">
+        <v>63811</v>
+      </c>
+      <c r="E14" s="1">
+        <f>100/C14*D14</f>
+        <v>71.192208139950026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C15">
+        <v>142951</v>
+      </c>
+      <c r="D15">
+        <v>99802</v>
+      </c>
+      <c r="E15">
+        <f>100/C15*D15</f>
+        <v>69.81553119600423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>80392</v>
+      </c>
+      <c r="D16">
+        <v>56051</v>
+      </c>
+      <c r="E16">
+        <f>100/C16*D16</f>
+        <v>69.722111652900779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5876</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C17">
+        <v>113426</v>
+      </c>
+      <c r="D17">
+        <v>79072</v>
+      </c>
+      <c r="E17">
+        <f>100/C17*D17</f>
+        <v>69.712411616384244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>60536</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>5876</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>27210</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>68.990039429999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13176</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>315913</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>13176</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>63537</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>83.255501379999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16797</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>99802</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>16797</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>43149</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>69.815531199999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>205845</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>21137</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>58838</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>77.770389480000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>21903</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>186884</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>21903</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>55037</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>77.250011369999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>22935</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>79072</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>22935</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>34354</v>
-      </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>69.712411619999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>24852</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>398609</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>24852</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>73956</v>
-      </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>84.350089409999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>24964</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>74663</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>24964</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>35115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>68.012716569999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>26209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>95768</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>26209</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>44859</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>68.100720350000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>27966</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>105409</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>27966</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12">
-        <v>31648</v>
-      </c>
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>76.908877329999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>63811</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>28204</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>25821</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>71.192208140000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>39275</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>62922</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>39275</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>37138</v>
-      </c>
-      <c r="K14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>62.884269439999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>40706</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>55230</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>40706</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <v>29025</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>65.551005880000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>45007</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>72165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>45007</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>32658</v>
-      </c>
-      <c r="K16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>68.84462379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>47209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>170131</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>47209</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>43453</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>79.655311260000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>47626</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
+      <c r="C18">
+        <v>152657</v>
       </c>
       <c r="D18">
         <v>106255</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <f>100/C18*D18</f>
+        <v>69.603752202650384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>97315</v>
+      </c>
+      <c r="D19">
+        <v>67313</v>
+      </c>
+      <c r="E19">
+        <f>100/C19*D19</f>
+        <v>69.170220418229462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>87746</v>
+      </c>
+      <c r="D20">
+        <v>60536</v>
+      </c>
+      <c r="E20">
+        <f>100/C20*D20</f>
+        <v>68.990039431996905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="G18">
-        <v>47626</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="C21">
+        <v>104823</v>
+      </c>
+      <c r="D21">
+        <v>72165</v>
+      </c>
+      <c r="E21">
+        <f>100/C21*D21</f>
+        <v>68.84462379439627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>140627</v>
+      </c>
+      <c r="D22">
+        <v>95768</v>
+      </c>
+      <c r="E22">
+        <f>100/C22*D22</f>
+        <v>68.100720345310648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>109778</v>
+      </c>
+      <c r="D23">
+        <v>74663</v>
+      </c>
+      <c r="E23">
+        <f>100/C23*D23</f>
+        <v>68.01271657344823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>82689</v>
+      </c>
+      <c r="D24">
+        <v>27512</v>
+      </c>
+      <c r="E24">
+        <f>100-F24</f>
+        <v>66.728343552346757</v>
+      </c>
+      <c r="F24">
+        <f>100/C24*D24</f>
+        <v>33.27165644765325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>76896</v>
+      </c>
+      <c r="D25">
+        <v>26424</v>
+      </c>
+      <c r="E25">
+        <f>100-F25</f>
+        <v>65.636704119850179</v>
+      </c>
+      <c r="F25">
+        <f>100/C25*D25</f>
+        <v>34.363295880149813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="J18">
-        <v>46402</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>69.603752200000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>47766</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>134044</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>47766</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <v>42771</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>75.810310209999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>49683</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>67313</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>49683</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>30002</v>
-      </c>
-      <c r="K20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>69.170220420000007</v>
+      <c r="C26">
+        <v>84255</v>
+      </c>
+      <c r="D26">
+        <v>55230</v>
+      </c>
+      <c r="E26">
+        <f>100/C26*D26</f>
+        <v>65.551005875022256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100060</v>
+      </c>
+      <c r="D27">
+        <v>62922</v>
+      </c>
+      <c r="E27">
+        <f>100/C27*D27</f>
+        <v>62.884269438336993</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:F27">
+    <sortCondition descending="1" ref="E3:E27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>